--- a/team_specific_matrix/Miami (OH)_B.xlsx
+++ b/team_specific_matrix/Miami (OH)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2094017094017094</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.08547008547008547</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7185185185185186</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2355555555555555</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3911111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4595959595959596</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.09024390243902439</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.07073170731707316</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07560975609756097</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1853658536585366</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4463414634146342</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.4157894736842105</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09176029962546817</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01591760299625468</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.08146067415730338</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.398876404494382</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.003311258278145695</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1556291390728477</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2019867549668874</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5364238410596026</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.009933774834437087</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1715976331360947</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.02366863905325444</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1650943396226415</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3160377358490566</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2877358490566038</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3801020408163265</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1096938775510204</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01275510204081633</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.09183673469387756</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2594936708860759</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.06962025316455696</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01686340640809443</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1913996627318718</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1053962900505902</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3507588532883643</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1247892074198988</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02529510961214165</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.002529510961214165</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06661045531197302</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1163575042158516</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Miami (OH)_B.xlsx
+++ b/team_specific_matrix/Miami (OH)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2094017094017094</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="C2">
-        <v>0.5470085470085471</v>
+        <v>0.5423076923076923</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008547008547008548</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1495726495726496</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08547008547008547</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007407407407407408</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="C3">
-        <v>0.05185185185185185</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02222222222222222</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7185185185185186</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6060606060606061</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06222222222222222</v>
+        <v>0.05533596837944664</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01333333333333333</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07111111111111111</v>
+        <v>0.07114624505928854</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2355555555555555</v>
+        <v>0.225296442687747</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02666666666666667</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1555555555555556</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="R6">
-        <v>0.04444444444444445</v>
+        <v>0.05138339920948617</v>
       </c>
       <c r="S6">
-        <v>0.3911111111111111</v>
+        <v>0.4071146245059288</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01515151515151515</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08585858585858586</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1464646464646465</v>
+        <v>0.1462264150943396</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02525252525252525</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1212121212121212</v>
+        <v>0.1179245283018868</v>
       </c>
       <c r="R7">
-        <v>0.03535353535353535</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="S7">
-        <v>0.4595959595959596</v>
+        <v>0.4575471698113208</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09024390243902439</v>
+        <v>0.0957683741648107</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01219512195121951</v>
+        <v>0.0133630289532294</v>
       </c>
       <c r="E8">
-        <v>0.002439024390243902</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="F8">
-        <v>0.07073170731707316</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07560975609756097</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02926829268292683</v>
+        <v>0.0267260579064588</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1853658536585366</v>
+        <v>0.1826280623608018</v>
       </c>
       <c r="R8">
-        <v>0.08780487804878048</v>
+        <v>0.08908685968819599</v>
       </c>
       <c r="S8">
-        <v>0.4463414634146342</v>
+        <v>0.4409799554565701</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06842105263157895</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02631578947368421</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07368421052631578</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1105263157894737</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05263157894736842</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1526315789473684</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S9">
-        <v>0.4157894736842105</v>
+        <v>0.4056603773584906</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09176029962546817</v>
+        <v>0.08924103419516263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01591760299625468</v>
+        <v>0.0158465387823186</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07303370786516854</v>
+        <v>0.07673060884070058</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1086142322097378</v>
+        <v>0.1075896580483736</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01685393258426966</v>
+        <v>0.01918265221017515</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2134831460674157</v>
+        <v>0.2093411175979983</v>
       </c>
       <c r="R10">
-        <v>0.08146067415730338</v>
+        <v>0.08173477898248541</v>
       </c>
       <c r="S10">
-        <v>0.398876404494382</v>
+        <v>0.4003336113427857</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003311258278145695</v>
+        <v>0.003095975232198143</v>
       </c>
       <c r="G11">
-        <v>0.1556291390728477</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09271523178807947</v>
+        <v>0.08668730650154799</v>
       </c>
       <c r="K11">
-        <v>0.2019867549668874</v>
+        <v>0.195046439628483</v>
       </c>
       <c r="L11">
-        <v>0.5364238410596026</v>
+        <v>0.544891640866873</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009933774834437087</v>
+        <v>0.01238390092879257</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7455621301775148</v>
+        <v>0.7431693989071039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1715976331360947</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="K12">
-        <v>0.01775147928994083</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="L12">
-        <v>0.04142011834319527</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02366863905325444</v>
+        <v>0.02185792349726776</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6904761904761905</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02380952380952381</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02358490566037736</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1650943396226415</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="I15">
-        <v>0.07547169811320754</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="J15">
-        <v>0.3160377358490566</v>
+        <v>0.3347457627118644</v>
       </c>
       <c r="K15">
-        <v>0.06132075471698113</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01415094339622642</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05660377358490566</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2877358490566038</v>
+        <v>0.288135593220339</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.18</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="I16">
-        <v>0.04666666666666667</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="J16">
-        <v>0.4066666666666667</v>
+        <v>0.4207317073170732</v>
       </c>
       <c r="K16">
-        <v>0.1066666666666667</v>
+        <v>0.1036585365853658</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01333333333333333</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N16">
-        <v>0.006666666666666667</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="O16">
-        <v>0.06</v>
+        <v>0.05487804878048781</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.16</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03061224489795918</v>
+        <v>0.03016241299303944</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2040816326530612</v>
+        <v>0.2018561484918794</v>
       </c>
       <c r="I17">
-        <v>0.09183673469387756</v>
+        <v>0.0951276102088167</v>
       </c>
       <c r="J17">
-        <v>0.3801020408163265</v>
+        <v>0.3851508120649652</v>
       </c>
       <c r="K17">
-        <v>0.1096938775510204</v>
+        <v>0.1044083526682135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01275510204081633</v>
+        <v>0.01160092807424594</v>
       </c>
       <c r="N17">
-        <v>0.002551020408163265</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="O17">
-        <v>0.07653061224489796</v>
+        <v>0.0765661252900232</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09183673469387756</v>
+        <v>0.09280742459396751</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006329113924050633</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2594936708860759</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="I18">
-        <v>0.05696202531645569</v>
+        <v>0.05</v>
       </c>
       <c r="J18">
-        <v>0.4367088607594937</v>
+        <v>0.4277777777777778</v>
       </c>
       <c r="K18">
-        <v>0.08227848101265822</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0189873417721519</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06962025316455696</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06962025316455696</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01686340640809443</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1913996627318718</v>
+        <v>0.1909433962264151</v>
       </c>
       <c r="I19">
-        <v>0.1053962900505902</v>
+        <v>0.1049056603773585</v>
       </c>
       <c r="J19">
-        <v>0.3507588532883643</v>
+        <v>0.3592452830188679</v>
       </c>
       <c r="K19">
-        <v>0.1247892074198988</v>
+        <v>0.1184905660377358</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02529510961214165</v>
+        <v>0.02490566037735849</v>
       </c>
       <c r="N19">
-        <v>0.002529510961214165</v>
+        <v>0.002264150943396227</v>
       </c>
       <c r="O19">
-        <v>0.06661045531197302</v>
+        <v>0.06566037735849056</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1163575042158516</v>
+        <v>0.1184905660377358</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Miami (OH)_B.xlsx
+++ b/team_specific_matrix/Miami (OH)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2076923076923077</v>
+        <v>0.2027491408934708</v>
       </c>
       <c r="C2">
-        <v>0.5423076923076923</v>
+        <v>0.5532646048109966</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01153846153846154</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1538461538461539</v>
+        <v>0.1512027491408935</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08461538461538462</v>
+        <v>0.08247422680412371</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006756756756756757</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C3">
-        <v>0.0472972972972973</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7027027027027027</v>
+        <v>0.7202380952380952</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2162162162162162</v>
+        <v>0.2023809523809524</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6388888888888888</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05533596837944664</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01185770750988142</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07114624505928854</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.225296442687747</v>
+        <v>0.2329749103942652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02371541501976284</v>
+        <v>0.02867383512544803</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1541501976284585</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="R6">
-        <v>0.05138339920948617</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="S6">
-        <v>0.4071146245059288</v>
+        <v>0.3906810035842294</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1084905660377359</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01415094339622642</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08018867924528301</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1462264150943396</v>
+        <v>0.1531914893617021</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02830188679245283</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1179245283018868</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="R7">
-        <v>0.04716981132075472</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="S7">
-        <v>0.4575471698113208</v>
+        <v>0.451063829787234</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0957683741648107</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0133630289532294</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="E8">
-        <v>0.0022271714922049</v>
+        <v>0.00205761316872428</v>
       </c>
       <c r="F8">
-        <v>0.07572383073496659</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07349665924276169</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0267260579064588</v>
+        <v>0.02674897119341564</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1826280623608018</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="R8">
-        <v>0.08908685968819599</v>
+        <v>0.08847736625514403</v>
       </c>
       <c r="S8">
-        <v>0.4409799554565701</v>
+        <v>0.4423868312757201</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08018867924528301</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02358490566037736</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07547169811320754</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1084905660377359</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05188679245283019</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.160377358490566</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="R9">
-        <v>0.09433962264150944</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="S9">
-        <v>0.4056603773584906</v>
+        <v>0.4194915254237288</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08924103419516263</v>
+        <v>0.09043736100815419</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0158465387823186</v>
+        <v>0.01704966641957005</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07673060884070058</v>
+        <v>0.07635285396590066</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1075896580483736</v>
+        <v>0.1111934766493699</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01918265221017515</v>
+        <v>0.01779095626389918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2093411175979983</v>
+        <v>0.2127501853224611</v>
       </c>
       <c r="R10">
-        <v>0.08173477898248541</v>
+        <v>0.08154188287620459</v>
       </c>
       <c r="S10">
-        <v>0.4003336113427857</v>
+        <v>0.3928836174944403</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003095975232198143</v>
+        <v>0.002770083102493075</v>
       </c>
       <c r="G11">
-        <v>0.1578947368421053</v>
+        <v>0.1662049861495845</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08668730650154799</v>
+        <v>0.08310249307479224</v>
       </c>
       <c r="K11">
-        <v>0.195046439628483</v>
+        <v>0.2022160664819945</v>
       </c>
       <c r="L11">
-        <v>0.544891640866873</v>
+        <v>0.5318559556786704</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01238390092879257</v>
+        <v>0.01385041551246537</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7431693989071039</v>
+        <v>0.735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1748633879781421</v>
+        <v>0.19</v>
       </c>
       <c r="K12">
-        <v>0.02185792349726776</v>
+        <v>0.02</v>
       </c>
       <c r="L12">
-        <v>0.03825136612021858</v>
+        <v>0.035</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02185792349726776</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3043478260869565</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0211864406779661</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1525423728813559</v>
+        <v>0.1417624521072797</v>
       </c>
       <c r="I15">
-        <v>0.07627118644067797</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J15">
-        <v>0.3347457627118644</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.05508474576271186</v>
+        <v>0.05363984674329502</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01271186440677966</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05932203389830509</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.288135593220339</v>
+        <v>0.2988505747126437</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02439024390243903</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1768292682926829</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I16">
-        <v>0.04878048780487805</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="J16">
-        <v>0.4207317073170732</v>
+        <v>0.4076086956521739</v>
       </c>
       <c r="K16">
-        <v>0.1036585365853658</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01219512195121951</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N16">
-        <v>0.006097560975609756</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="O16">
-        <v>0.05487804878048781</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1524390243902439</v>
+        <v>0.1576086956521739</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03016241299303944</v>
+        <v>0.03125</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2018561484918794</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="I17">
-        <v>0.0951276102088167</v>
+        <v>0.09791666666666667</v>
       </c>
       <c r="J17">
-        <v>0.3851508120649652</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="K17">
-        <v>0.1044083526682135</v>
+        <v>0.10625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01160092807424594</v>
+        <v>0.0125</v>
       </c>
       <c r="N17">
-        <v>0.002320185614849188</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="O17">
-        <v>0.0765661252900232</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09280742459396751</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005555555555555556</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2444444444444444</v>
+        <v>0.2184466019417476</v>
       </c>
       <c r="I18">
-        <v>0.05</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="J18">
-        <v>0.4277777777777778</v>
+        <v>0.4368932038834951</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02222222222222222</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08333333333333333</v>
+        <v>0.0970873786407767</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01509433962264151</v>
+        <v>0.01558265582655827</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1909433962264151</v>
+        <v>0.1897018970189702</v>
       </c>
       <c r="I19">
-        <v>0.1049056603773585</v>
+        <v>0.1023035230352304</v>
       </c>
       <c r="J19">
-        <v>0.3592452830188679</v>
+        <v>0.3597560975609756</v>
       </c>
       <c r="K19">
-        <v>0.1184905660377358</v>
+        <v>0.1172086720867209</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02490566037735849</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N19">
-        <v>0.002264150943396227</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="O19">
-        <v>0.06566037735849056</v>
+        <v>0.06368563685636856</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1184905660377358</v>
+        <v>0.1253387533875339</v>
       </c>
     </row>
   </sheetData>
